--- a/Data/phenotypic data/RawData/2011 Data/BogUpper5-R44.xlsx
+++ b/Data/phenotypic data/RawData/2011 Data/BogUpper5-R44.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="400" windowWidth="11120" windowHeight="8840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="105">
   <si>
     <t>Berry</t>
   </si>
@@ -492,12 +492,6 @@
     <t>Row/Col: R44 C25</t>
   </si>
   <si>
-    <t>12f</t>
-  </si>
-  <si>
-    <t>edium</t>
-  </si>
-  <si>
     <t>Row/Col: R44 C29</t>
   </si>
   <si>
@@ -520,9 +514,6 @@
   </si>
   <si>
     <t>Row/Col: R44 C41</t>
-  </si>
-  <si>
-    <t>23 no</t>
   </si>
   <si>
     <t>1.3/1.2</t>
@@ -561,13 +552,10 @@
     <t>Row/Col: R44 C51</t>
   </si>
   <si>
-    <t>rou8nd</t>
+    <t>Row/Col: R44 C52</t>
   </si>
   <si>
-    <t>mflat</t>
-  </si>
-  <si>
-    <t>Row/Col: R44 C52</t>
+    <t>sharp</t>
   </si>
 </sst>
 </file>
@@ -973,11 +961,19 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -987,14 +983,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1330,31 +1318,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D82" workbookViewId="0">
-      <selection activeCell="N82" sqref="A1:T1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="U287" sqref="U287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="7.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="7.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="4.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" style="4" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="6.5" style="4" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="7.5" style="4" customWidth="1"/>
     <col min="14" max="14" width="7.5" style="60" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.5" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="5" customWidth="1"/>
-    <col min="17" max="19" width="8.5" style="3" customWidth="1"/>
-    <col min="20" max="20" width="9.5" style="4" customWidth="1"/>
-    <col min="21" max="21" width="9.6640625" style="4" customWidth="1"/>
-    <col min="22" max="16384" width="10" style="3"/>
+    <col min="17" max="17" width="8" style="3" customWidth="1"/>
+    <col min="18" max="18" width="8.1640625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="9" style="3" customWidth="1"/>
+    <col min="20" max="20" width="8.5" style="4" customWidth="1"/>
+    <col min="21" max="21" width="5.83203125" style="4" customWidth="1"/>
+    <col min="22" max="22" width="4.83203125" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="10" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="19.5" customHeight="1">
@@ -1404,53 +1396,53 @@
       <c r="U2" s="18"/>
     </row>
     <row r="3" spans="1:21" ht="32.25" customHeight="1">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
       <c r="U3" s="39"/>
     </row>
     <row r="4" spans="1:21" ht="30.75" customHeight="1">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
       <c r="U4" s="39"/>
     </row>
     <row r="5" spans="1:21" ht="19.5" customHeight="1">
@@ -1562,28 +1554,28 @@
       <c r="U9" s="18"/>
     </row>
     <row r="10" spans="1:21" ht="30.75" customHeight="1">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
       <c r="U10" s="33"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" customHeight="1">
@@ -1756,78 +1748,78 @@
       <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="69"/>
       <c r="U20" s="33"/>
     </row>
     <row r="21" spans="1:22" ht="27.75" customHeight="1">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="67"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="69"/>
+      <c r="T21" s="69"/>
       <c r="U21" s="33"/>
     </row>
     <row r="22" spans="1:22" ht="33" customHeight="1">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="69"/>
+      <c r="T22" s="69"/>
       <c r="U22" s="33"/>
     </row>
     <row r="24" spans="1:22" ht="19.5" customHeight="1">
@@ -1898,10 +1890,10 @@
       <c r="L32" s="22"/>
       <c r="M32" s="18"/>
       <c r="N32" s="58"/>
-      <c r="O32" s="66" t="s">
+      <c r="O32" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P32" s="66"/>
+      <c r="P32" s="67"/>
       <c r="Q32" s="5"/>
       <c r="T32" s="3"/>
       <c r="V32" s="18"/>
@@ -1916,11 +1908,11 @@
         <v>16</v>
       </c>
       <c r="J33" s="25"/>
-      <c r="K33" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="L33" s="65"/>
-      <c r="M33" s="65"/>
+      <c r="K33" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
       <c r="N33" s="62" t="s">
         <v>23</v>
       </c>
@@ -3086,7 +3078,7 @@
         <v>71</v>
       </c>
       <c r="R53" s="27" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="S53" s="3">
         <v>2</v>
@@ -3222,7 +3214,7 @@
         <v>2</v>
       </c>
       <c r="T55" s="16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U55" s="4">
         <v>6</v>
@@ -3293,7 +3285,7 @@
         <v>12</v>
       </c>
       <c r="V56" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:22" ht="19.5" customHeight="1">
@@ -3493,10 +3485,10 @@
       <c r="L62" s="22"/>
       <c r="M62" s="18"/>
       <c r="N62" s="58"/>
-      <c r="O62" s="66" t="s">
+      <c r="O62" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P62" s="66"/>
+      <c r="P62" s="67"/>
       <c r="Q62" s="5"/>
       <c r="T62" s="3"/>
       <c r="V62" s="18"/>
@@ -3511,11 +3503,11 @@
         <v>16</v>
       </c>
       <c r="J63" s="25"/>
-      <c r="K63" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="L63" s="65"/>
-      <c r="M63" s="65"/>
+      <c r="K63" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="L63" s="68"/>
+      <c r="M63" s="68"/>
       <c r="N63" s="62" t="s">
         <v>23</v>
       </c>
@@ -4019,8 +4011,8 @@
       <c r="T71" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="U71" s="16" t="s">
-        <v>83</v>
+      <c r="U71" s="16">
+        <v>12</v>
       </c>
       <c r="V71" s="27" t="s">
         <v>74</v>
@@ -4064,7 +4056,7 @@
         <v>2.46</v>
       </c>
       <c r="N72" s="60">
-        <v>3.88</v>
+        <v>3.58</v>
       </c>
       <c r="O72" s="35" t="s">
         <v>61</v>
@@ -4076,7 +4068,7 @@
         <v>71</v>
       </c>
       <c r="R72" s="27" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="S72" s="3">
         <v>2</v>
@@ -4136,7 +4128,7 @@
         <v>14</v>
       </c>
       <c r="P73" s="35" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="Q73" s="27" t="s">
         <v>71</v>
@@ -4523,7 +4515,7 @@
         <v>2</v>
       </c>
       <c r="E81" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F81" s="1">
         <v>0</v>
@@ -4563,7 +4555,7 @@
         <v>71</v>
       </c>
       <c r="S81" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T81" s="16" t="s">
         <v>71</v>
@@ -4722,10 +4714,10 @@
         <v>4</v>
       </c>
       <c r="E84" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" s="3">
         <v>6.4</v>
@@ -4832,7 +4824,7 @@
         <v>73</v>
       </c>
       <c r="U85" s="4">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="V85" s="27" t="s">
         <v>74</v>
@@ -4932,7 +4924,7 @@
         <v>0.109</v>
       </c>
       <c r="K87" s="4">
-        <v>2068</v>
+        <v>20.68</v>
       </c>
       <c r="L87" s="4">
         <v>19.600000000000001</v>
@@ -5087,10 +5079,10 @@
       <c r="L92" s="22"/>
       <c r="M92" s="18"/>
       <c r="N92" s="58"/>
-      <c r="O92" s="66" t="s">
+      <c r="O92" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P92" s="66"/>
+      <c r="P92" s="67"/>
       <c r="Q92" s="5"/>
       <c r="T92" s="3"/>
       <c r="V92" s="18"/>
@@ -5105,11 +5097,11 @@
         <v>16</v>
       </c>
       <c r="J93" s="25"/>
-      <c r="K93" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="L93" s="65"/>
-      <c r="M93" s="65"/>
+      <c r="K93" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="L93" s="68"/>
+      <c r="M93" s="68"/>
       <c r="N93" s="62" t="s">
         <v>23</v>
       </c>
@@ -5264,7 +5256,7 @@
     </row>
     <row r="96" spans="1:22" ht="19.5" customHeight="1">
       <c r="A96" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B96" s="42"/>
       <c r="C96" s="42"/>
@@ -5721,7 +5713,7 @@
         <v>2.83</v>
       </c>
       <c r="N103" s="60">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="O103" s="35" t="s">
         <v>61</v>
@@ -5951,7 +5943,7 @@
     </row>
     <row r="108" spans="1:22" ht="19.5" customHeight="1">
       <c r="A108" s="34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B108" s="18"/>
       <c r="C108" s="18"/>
@@ -6186,10 +6178,10 @@
         <v>2</v>
       </c>
       <c r="E112" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112" s="3">
         <v>5.5</v>
@@ -6676,10 +6668,10 @@
       <c r="L122" s="22"/>
       <c r="M122" s="18"/>
       <c r="N122" s="58"/>
-      <c r="O122" s="66" t="s">
+      <c r="O122" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P122" s="66"/>
+      <c r="P122" s="67"/>
       <c r="Q122" s="5"/>
       <c r="T122" s="3"/>
       <c r="V122" s="18"/>
@@ -6694,11 +6686,11 @@
         <v>16</v>
       </c>
       <c r="J123" s="25"/>
-      <c r="K123" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="L123" s="65"/>
-      <c r="M123" s="65"/>
+      <c r="K123" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="L123" s="68"/>
+      <c r="M123" s="68"/>
       <c r="N123" s="62" t="s">
         <v>23</v>
       </c>
@@ -6853,7 +6845,7 @@
     </row>
     <row r="126" spans="1:22" ht="19.5" customHeight="1">
       <c r="A126" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B126" s="42"/>
       <c r="C126" s="42"/>
@@ -7099,7 +7091,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="K130" s="4">
-        <v>2014</v>
+        <v>20.14</v>
       </c>
       <c r="L130" s="4">
         <v>17.63</v>
@@ -7341,19 +7333,19 @@
       <c r="C134" s="3">
         <v>7</v>
       </c>
+      <c r="D134" s="3">
+        <v>3</v>
+      </c>
       <c r="E134" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F134" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G134" s="3">
-        <v>0</v>
+        <v>5.12</v>
       </c>
       <c r="H134" s="3">
-        <v>5.12</v>
-      </c>
-      <c r="I134" s="3">
         <v>3.1</v>
       </c>
       <c r="J134" s="4">
@@ -7531,7 +7523,7 @@
     </row>
     <row r="138" spans="1:22" ht="19.5" customHeight="1">
       <c r="A138" s="34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B138" s="18"/>
       <c r="C138" s="18"/>
@@ -7813,10 +7805,10 @@
         <v>73</v>
       </c>
       <c r="U142" s="4">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="V142" s="27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="143" spans="1:22" ht="19.5" customHeight="1">
@@ -7878,7 +7870,7 @@
         <v>73</v>
       </c>
       <c r="U143" s="4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V143" s="27" t="s">
         <v>74</v>
@@ -8258,10 +8250,10 @@
       <c r="L152" s="22"/>
       <c r="M152" s="18"/>
       <c r="N152" s="58"/>
-      <c r="O152" s="66" t="s">
+      <c r="O152" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P152" s="66"/>
+      <c r="P152" s="67"/>
       <c r="Q152" s="5"/>
       <c r="T152" s="3"/>
       <c r="V152" s="18"/>
@@ -8276,11 +8268,11 @@
         <v>16</v>
       </c>
       <c r="J153" s="25"/>
-      <c r="K153" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="L153" s="65"/>
-      <c r="M153" s="65"/>
+      <c r="K153" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="L153" s="68"/>
+      <c r="M153" s="68"/>
       <c r="N153" s="62" t="s">
         <v>23</v>
       </c>
@@ -8435,7 +8427,7 @@
     </row>
     <row r="156" spans="1:22" ht="19.5" customHeight="1">
       <c r="A156" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B156" s="42"/>
       <c r="C156" s="42"/>
@@ -8776,10 +8768,10 @@
         <v>73</v>
       </c>
       <c r="U161" s="4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="V161" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="162" spans="1:22" ht="19.5" customHeight="1">
@@ -8841,10 +8833,10 @@
         <v>73</v>
       </c>
       <c r="U162" s="4">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="V162" s="27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="163" spans="1:22" ht="19.5" customHeight="1">
@@ -8907,7 +8899,7 @@
         <v>73</v>
       </c>
       <c r="U163" s="4">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="V163" s="27" t="s">
         <v>74</v>
@@ -9104,17 +9096,19 @@
       <c r="T166" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="U166" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="V166" s="27"/>
+      <c r="U166" s="16">
+        <v>23</v>
+      </c>
+      <c r="V166" s="27" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="167" spans="1:22" ht="19.5" customHeight="1">
       <c r="A167" s="4"/>
     </row>
     <row r="168" spans="1:22" ht="19.5" customHeight="1">
       <c r="A168" s="34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B168" s="18"/>
       <c r="C168" s="18"/>
@@ -9161,7 +9155,7 @@
         <v>3.2</v>
       </c>
       <c r="I169" s="27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J169" s="4">
         <v>5.2999999999999999E-2</v>
@@ -9458,7 +9452,7 @@
         <v>2</v>
       </c>
       <c r="T173" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="U173" s="4">
         <v>5</v>
@@ -9847,10 +9841,10 @@
       <c r="L182" s="22"/>
       <c r="M182" s="18"/>
       <c r="N182" s="58"/>
-      <c r="O182" s="66" t="s">
+      <c r="O182" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P182" s="66"/>
+      <c r="P182" s="67"/>
       <c r="Q182" s="5"/>
       <c r="T182" s="3"/>
       <c r="V182" s="18"/>
@@ -9865,11 +9859,11 @@
         <v>16</v>
       </c>
       <c r="J183" s="25"/>
-      <c r="K183" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="L183" s="65"/>
-      <c r="M183" s="65"/>
+      <c r="K183" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="L183" s="68"/>
+      <c r="M183" s="68"/>
       <c r="N183" s="62" t="s">
         <v>23</v>
       </c>
@@ -10024,7 +10018,7 @@
     </row>
     <row r="186" spans="1:22" ht="19.5" customHeight="1">
       <c r="A186" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B186" s="42"/>
       <c r="C186" s="42"/>
@@ -10217,7 +10211,7 @@
         <v>3.08</v>
       </c>
       <c r="O189" s="35" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="P189" s="35" t="s">
         <v>14</v>
@@ -10338,7 +10332,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="K191" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L191" s="4">
         <v>18.98</v>
@@ -10685,7 +10679,7 @@
         <v>71</v>
       </c>
       <c r="R196" s="27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="S196" s="3">
         <v>2</v>
@@ -10705,7 +10699,7 @@
     </row>
     <row r="198" spans="1:22" ht="19.5" customHeight="1">
       <c r="A198" s="34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B198" s="18"/>
       <c r="C198" s="18"/>
@@ -10832,7 +10826,7 @@
         <v>2.37</v>
       </c>
       <c r="N200" s="60">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="O200" s="35" t="s">
         <v>14</v>
@@ -10898,7 +10892,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="N201" s="60">
-        <v>3</v>
+        <v>3.01</v>
       </c>
       <c r="O201" s="35" t="s">
         <v>14</v>
@@ -10948,7 +10942,7 @@
         <v>4.74</v>
       </c>
       <c r="H202" s="3">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="I202" s="3">
         <v>0.5</v>
@@ -11294,7 +11288,7 @@
         <v>1.95</v>
       </c>
       <c r="N207" s="60">
-        <v>3.14</v>
+        <v>3.15</v>
       </c>
       <c r="O207" s="35" t="s">
         <v>14</v>
@@ -11432,10 +11426,10 @@
       <c r="L212" s="22"/>
       <c r="M212" s="18"/>
       <c r="N212" s="58"/>
-      <c r="O212" s="66" t="s">
+      <c r="O212" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P212" s="66"/>
+      <c r="P212" s="67"/>
       <c r="Q212" s="5"/>
       <c r="T212" s="3"/>
       <c r="V212" s="18"/>
@@ -11450,11 +11444,11 @@
         <v>16</v>
       </c>
       <c r="J213" s="25"/>
-      <c r="K213" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="L213" s="65"/>
-      <c r="M213" s="65"/>
+      <c r="K213" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="L213" s="68"/>
+      <c r="M213" s="68"/>
       <c r="N213" s="62" t="s">
         <v>23</v>
       </c>
@@ -11609,7 +11603,7 @@
     </row>
     <row r="216" spans="1:22" ht="19.5" customHeight="1">
       <c r="A216" s="21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B216" s="42"/>
       <c r="C216" s="42"/>
@@ -11801,7 +11795,7 @@
         <v>2.52</v>
       </c>
       <c r="N219" s="60">
-        <v>2.9</v>
+        <v>2.93</v>
       </c>
       <c r="O219" s="35" t="s">
         <v>14</v>
@@ -11822,7 +11816,7 @@
         <v>75</v>
       </c>
       <c r="U219" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V219" s="27" t="s">
         <v>74</v>
@@ -11993,7 +11987,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="K222" s="4">
-        <v>32.119999999999997</v>
+        <v>23.12</v>
       </c>
       <c r="L222" s="4">
         <v>19.46</v>
@@ -12068,7 +12062,7 @@
         <v>1.72</v>
       </c>
       <c r="N223" s="60">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="O223" s="35" t="s">
         <v>14</v>
@@ -12213,7 +12207,7 @@
         <v>78</v>
       </c>
       <c r="R225" s="27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="S225" s="3">
         <v>2</v>
@@ -12301,7 +12295,7 @@
     </row>
     <row r="228" spans="1:22" ht="19.5" customHeight="1">
       <c r="A228" s="34" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B228" s="18"/>
       <c r="C228" s="18"/>
@@ -12348,7 +12342,7 @@
         <v>2.9</v>
       </c>
       <c r="I229" s="27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J229" s="4">
         <v>7.1999999999999995E-2</v>
@@ -12727,25 +12721,25 @@
         <v>7</v>
       </c>
       <c r="B235" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C235" s="3">
         <v>4</v>
       </c>
       <c r="D235" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E235" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F235" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G235" s="3">
-        <v>2.61</v>
+        <v>1.73</v>
       </c>
       <c r="H235" s="3">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J235" s="4">
         <v>5.8999999999999997E-2</v>
@@ -12757,7 +12751,7 @@
         <v>15.93</v>
       </c>
       <c r="M235" s="4">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="N235" s="60">
         <v>3.12</v>
@@ -12846,7 +12840,7 @@
         <v>2</v>
       </c>
       <c r="T236" s="46" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U236" s="4">
         <v>29</v>
@@ -12979,7 +12973,7 @@
         <v>2</v>
       </c>
       <c r="T238" s="46" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="U238" s="4">
         <v>21</v>
@@ -13034,10 +13028,10 @@
       <c r="L242" s="22"/>
       <c r="M242" s="18"/>
       <c r="N242" s="58"/>
-      <c r="O242" s="66" t="s">
+      <c r="O242" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P242" s="66"/>
+      <c r="P242" s="67"/>
       <c r="Q242" s="5"/>
       <c r="T242" s="3"/>
       <c r="V242" s="18"/>
@@ -13052,11 +13046,11 @@
         <v>16</v>
       </c>
       <c r="J243" s="25"/>
-      <c r="K243" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="L243" s="65"/>
-      <c r="M243" s="65"/>
+      <c r="K243" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="L243" s="68"/>
+      <c r="M243" s="68"/>
       <c r="N243" s="62" t="s">
         <v>23</v>
       </c>
@@ -13211,7 +13205,7 @@
     </row>
     <row r="246" spans="1:22" ht="19.5" customHeight="1">
       <c r="A246" s="21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B246" s="42"/>
       <c r="C246" s="42"/>
@@ -13406,7 +13400,7 @@
         <v>3.09</v>
       </c>
       <c r="N249" s="60">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="O249" s="35" t="s">
         <v>6</v>
@@ -13661,7 +13655,7 @@
         <v>25.11</v>
       </c>
       <c r="L253" s="4">
-        <v>21.68</v>
+        <v>21.58</v>
       </c>
       <c r="M253" s="4">
         <v>3.62</v>
@@ -13753,7 +13747,7 @@
         <v>73</v>
       </c>
       <c r="U254" s="46">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="V254" s="27" t="s">
         <v>76</v>
@@ -13794,7 +13788,7 @@
         <v>26.78</v>
       </c>
       <c r="L255" s="4">
-        <v>22.26</v>
+        <v>22.27</v>
       </c>
       <c r="M255" s="4">
         <v>4.47</v>
@@ -13897,7 +13891,7 @@
     </row>
     <row r="258" spans="1:22" ht="19.5" customHeight="1">
       <c r="A258" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B258" s="18"/>
       <c r="C258" s="18"/>
@@ -14030,7 +14024,7 @@
         <v>3.41</v>
       </c>
       <c r="O260" s="45" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="P260" s="45" t="s">
         <v>14</v>
@@ -14039,7 +14033,7 @@
         <v>71</v>
       </c>
       <c r="R260" s="40" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="S260" s="3">
         <v>2</v>
@@ -14092,13 +14086,13 @@
         <v>18.93</v>
       </c>
       <c r="M261" s="4">
-        <v>2.97</v>
+        <v>3.06</v>
       </c>
       <c r="N261" s="60">
-        <v>3.41</v>
+        <v>2.86</v>
       </c>
       <c r="O261" s="45" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="P261" s="45" t="s">
         <v>14</v>
@@ -14107,7 +14101,7 @@
         <v>71</v>
       </c>
       <c r="R261" s="40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S261" s="3">
         <v>2</v>
@@ -14500,7 +14494,7 @@
         <v>14</v>
       </c>
       <c r="Q267" s="40" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="R267" s="40" t="s">
         <v>72</v>
@@ -14629,10 +14623,10 @@
       <c r="L272" s="22"/>
       <c r="M272" s="18"/>
       <c r="N272" s="58"/>
-      <c r="O272" s="66" t="s">
+      <c r="O272" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P272" s="66"/>
+      <c r="P272" s="67"/>
       <c r="Q272" s="5"/>
       <c r="T272" s="3"/>
       <c r="V272" s="18"/>
@@ -14647,11 +14641,11 @@
         <v>16</v>
       </c>
       <c r="J273" s="25"/>
-      <c r="K273" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="L273" s="65"/>
-      <c r="M273" s="65"/>
+      <c r="K273" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="L273" s="68"/>
+      <c r="M273" s="68"/>
       <c r="N273" s="62" t="s">
         <v>23</v>
       </c>
@@ -14806,7 +14800,7 @@
     </row>
     <row r="276" spans="1:22" ht="19.5" customHeight="1">
       <c r="A276" s="21" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B276" s="42"/>
       <c r="C276" s="42"/>
@@ -15150,7 +15144,7 @@
         <v>73</v>
       </c>
       <c r="U281" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V281" s="27" t="s">
         <v>74</v>
@@ -15215,7 +15209,7 @@
         <v>73</v>
       </c>
       <c r="U282" s="4">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="V282" s="27" t="s">
         <v>74</v>
@@ -15397,7 +15391,7 @@
         <v>2.68</v>
       </c>
       <c r="O285" s="35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P285" s="35" t="s">
         <v>14</v>
@@ -15592,8 +15586,8 @@
       <c r="L302" s="50"/>
       <c r="M302" s="13"/>
       <c r="N302" s="57"/>
-      <c r="O302" s="69"/>
-      <c r="P302" s="69"/>
+      <c r="O302" s="65"/>
+      <c r="P302" s="65"/>
       <c r="Q302" s="35"/>
       <c r="R302" s="27"/>
       <c r="S302" s="27"/>
@@ -15612,9 +15606,9 @@
       <c r="H303" s="51"/>
       <c r="I303" s="27"/>
       <c r="J303" s="52"/>
-      <c r="K303" s="70"/>
-      <c r="L303" s="70"/>
-      <c r="M303" s="70"/>
+      <c r="K303" s="66"/>
+      <c r="L303" s="66"/>
+      <c r="M303" s="66"/>
       <c r="N303" s="64"/>
       <c r="O303" s="53"/>
       <c r="P303" s="27"/>
@@ -16312,8 +16306,8 @@
       <c r="L332" s="50"/>
       <c r="M332" s="13"/>
       <c r="N332" s="57"/>
-      <c r="O332" s="69"/>
-      <c r="P332" s="69"/>
+      <c r="O332" s="65"/>
+      <c r="P332" s="65"/>
       <c r="Q332" s="35"/>
       <c r="R332" s="27"/>
       <c r="S332" s="27"/>
@@ -16332,9 +16326,9 @@
       <c r="H333" s="51"/>
       <c r="I333" s="27"/>
       <c r="J333" s="52"/>
-      <c r="K333" s="70"/>
-      <c r="L333" s="70"/>
-      <c r="M333" s="70"/>
+      <c r="K333" s="66"/>
+      <c r="L333" s="66"/>
+      <c r="M333" s="66"/>
       <c r="N333" s="64"/>
       <c r="O333" s="53"/>
       <c r="P333" s="27"/>
@@ -16600,6 +16594,26 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="A22:T22"/>
+    <mergeCell ref="A4:T4"/>
+    <mergeCell ref="A3:T3"/>
+    <mergeCell ref="A20:T20"/>
+    <mergeCell ref="A21:T21"/>
+    <mergeCell ref="A10:T10"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="O92:P92"/>
+    <mergeCell ref="K93:M93"/>
+    <mergeCell ref="O122:P122"/>
+    <mergeCell ref="K123:M123"/>
+    <mergeCell ref="O152:P152"/>
+    <mergeCell ref="K153:M153"/>
+    <mergeCell ref="O182:P182"/>
+    <mergeCell ref="K183:M183"/>
+    <mergeCell ref="O212:P212"/>
+    <mergeCell ref="K213:M213"/>
     <mergeCell ref="O332:P332"/>
     <mergeCell ref="K333:M333"/>
     <mergeCell ref="O242:P242"/>
@@ -16608,26 +16622,6 @@
     <mergeCell ref="K273:M273"/>
     <mergeCell ref="O302:P302"/>
     <mergeCell ref="K303:M303"/>
-    <mergeCell ref="O152:P152"/>
-    <mergeCell ref="K153:M153"/>
-    <mergeCell ref="O182:P182"/>
-    <mergeCell ref="K183:M183"/>
-    <mergeCell ref="O212:P212"/>
-    <mergeCell ref="K213:M213"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="O92:P92"/>
-    <mergeCell ref="K93:M93"/>
-    <mergeCell ref="O122:P122"/>
-    <mergeCell ref="K123:M123"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="A22:T22"/>
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="A20:T20"/>
-    <mergeCell ref="A21:T21"/>
-    <mergeCell ref="A10:T10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
